--- a/evaluation/results/one_svm/split_1/test_50_50/evaluation_metrics.xlsx
+++ b/evaluation/results/one_svm/split_1/test_50_50/evaluation_metrics.xlsx
@@ -518,7 +518,7 @@
         <v>0.2229944547134935</v>
       </c>
       <c r="H2">
-        <v>0.5533707865168539</v>
+        <v>0.7797065465920409</v>
       </c>
       <c r="I2">
         <v>116</v>

--- a/evaluation/results/one_svm/split_1/test_50_50/evaluation_metrics.xlsx
+++ b/evaluation/results/one_svm/split_1/test_50_50/evaluation_metrics.xlsx
@@ -500,37 +500,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>0.5533707865168539</v>
+        <v>0.6554307116104869</v>
       </c>
       <c r="C2">
-        <v>0.6628571428571428</v>
+        <v>0.5992822966507177</v>
       </c>
       <c r="D2">
-        <v>0.2172284644194757</v>
+        <v>0.9382022471910112</v>
       </c>
       <c r="E2">
-        <v>0.3272214386459802</v>
+        <v>0.7313868613138687</v>
       </c>
       <c r="F2">
-        <v>0.2509736045002163</v>
+        <v>0.8428667563930013</v>
       </c>
       <c r="G2">
-        <v>0.2229944547134935</v>
+        <v>0.9182292400958691</v>
       </c>
       <c r="H2">
-        <v>0.7797065465920409</v>
+        <v>0.7780337780022164</v>
       </c>
       <c r="I2">
-        <v>116</v>
+        <v>501</v>
       </c>
       <c r="J2">
-        <v>59</v>
+        <v>335</v>
       </c>
       <c r="K2">
-        <v>475</v>
+        <v>199</v>
       </c>
       <c r="L2">
-        <v>418</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -565,13 +565,13 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.5319148936170213</v>
+        <v>0.8577586206896551</v>
       </c>
       <c r="C2">
-        <v>0.8895131086142322</v>
+        <v>0.3726591760299626</v>
       </c>
       <c r="D2">
-        <v>0.6657323055360898</v>
+        <v>0.5195822454308094</v>
       </c>
       <c r="E2">
         <v>534</v>
@@ -582,13 +582,13 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0.6628571428571428</v>
+        <v>0.5992822966507177</v>
       </c>
       <c r="C3">
-        <v>0.2172284644194757</v>
+        <v>0.9382022471910112</v>
       </c>
       <c r="D3">
-        <v>0.3272214386459802</v>
+        <v>0.7313868613138687</v>
       </c>
       <c r="E3">
         <v>534</v>
@@ -599,16 +599,16 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0.5533707865168539</v>
+        <v>0.6554307116104869</v>
       </c>
       <c r="C4">
-        <v>0.5533707865168539</v>
+        <v>0.6554307116104869</v>
       </c>
       <c r="D4">
-        <v>0.5533707865168539</v>
+        <v>0.6554307116104869</v>
       </c>
       <c r="E4">
-        <v>0.5533707865168539</v>
+        <v>0.6554307116104869</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -616,13 +616,13 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>0.597386018237082</v>
+        <v>0.7285204586701864</v>
       </c>
       <c r="C5">
-        <v>0.5533707865168539</v>
+        <v>0.6554307116104869</v>
       </c>
       <c r="D5">
-        <v>0.496476872091035</v>
+        <v>0.625484553372339</v>
       </c>
       <c r="E5">
         <v>1068</v>
@@ -633,13 +633,13 @@
         <v>21</v>
       </c>
       <c r="B6">
-        <v>0.597386018237082</v>
+        <v>0.7285204586701866</v>
       </c>
       <c r="C6">
-        <v>0.5533707865168539</v>
+        <v>0.6554307116104869</v>
       </c>
       <c r="D6">
-        <v>0.496476872091035</v>
+        <v>0.625484553372339</v>
       </c>
       <c r="E6">
         <v>1068</v>
@@ -671,10 +671,10 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>475</v>
+        <v>199</v>
       </c>
       <c r="C2">
-        <v>59</v>
+        <v>335</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -682,10 +682,10 @@
         <v>25</v>
       </c>
       <c r="B3">
-        <v>418</v>
+        <v>33</v>
       </c>
       <c r="C3">
-        <v>116</v>
+        <v>501</v>
       </c>
     </row>
   </sheetData>
